--- a/reports/Debug-snowbowl-20251217/For The Week Ending (Prior Year)_Visits.xlsx
+++ b/reports/Debug-snowbowl-20251217/For The Week Ending (Prior Year)_Visits.xlsx
@@ -34,13 +34,13 @@
     <t>Snowbowl Passes</t>
   </si>
   <si>
+    <t>Snowbowl Tickets</t>
+  </si>
+  <si>
+    <t>Snowbowl Uplift Tickets</t>
+  </si>
+  <si>
     <t>Snowbowl Comp Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="C2" s="2">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45644</v>
+        <v>45643</v>
       </c>
       <c r="C3" s="2">
-        <v>85</v>
+        <v>1155</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -462,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,13 +476,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>45642</v>
+        <v>45644</v>
       </c>
       <c r="C5" s="2">
-        <v>1096</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,7 +493,7 @@
         <v>45643</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>523</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="C7" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -524,7 +524,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -594,7 +594,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -633,10 +633,10 @@
         <v>45642</v>
       </c>
       <c r="C16" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="C17" s="2">
-        <v>71</v>
+        <v>1096</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>45644</v>
+        <v>45643</v>
       </c>
       <c r="C18" s="2">
-        <v>1245</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="C19" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="C20" s="2">
-        <v>1155</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
@@ -703,10 +703,10 @@
         <v>45643</v>
       </c>
       <c r="C21" s="2">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -717,10 +717,10 @@
         <v>45644</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>1245</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
